--- a/biology/Botanique/Exaculum_pusillum/Exaculum_pusillum.xlsx
+++ b/biology/Botanique/Exaculum_pusillum/Exaculum_pusillum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Exaculum pusillum est la seule espèce de plantes à fleurs du genre monotypique Exaculum appartenant à la famille des Gentianacées. Elle est originaire des îles Britanniques.
-Elle porte, en français, les noms vernaculaires de cicendie fluette et cicendie très petite et est inscrite dans la liste rouge de l'UICN des espèces quasi-menacées[2].
-D'autres synonymes correspondent à cette espèce, tels que Cicendia candollei, Cicendia pusilla, Exacum candollii, Gentiana pusilla, Microcala pusilla[2].
-On en trouve également en Bretagne, comme sur la ZAD de Notre-Dame-des-Landes[3].
+Elle porte, en français, les noms vernaculaires de cicendie fluette et cicendie très petite et est inscrite dans la liste rouge de l'UICN des espèces quasi-menacées.
+D'autres synonymes correspondent à cette espèce, tels que Cicendia candollei, Cicendia pusilla, Exacum candollii, Gentiana pusilla, Microcala pusilla.
+On en trouve également en Bretagne, comme sur la ZAD de Notre-Dame-des-Landes.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée qui peut atteindre 3 cm de hauteur, avec de petites feuilles et des fleurs de couleur rose pâle et mesurent approximativement 1 mm de large, qui ne s'ouvrent que lorsque le soleil brille.
 </t>
